--- a/data/state_election_results/pennsylvania_president.xlsx
+++ b/data/state_election_results/pennsylvania_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B8654E-6BF9-C64D-A5B0-B81EDC99C389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDE8F79-FD6A-0B42-A7BB-B72AB8071994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{BD0029BF-FF6F-8947-9F2C-2CD8325A9F4C}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>Adams</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>trump.percent</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -300,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,32 +617,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD60084-0604-B541-A134-EFE29CBD7CE1}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>18207</v>
@@ -659,7 +657,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>430759</v>
@@ -676,7 +674,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>8457</v>
@@ -693,7 +691,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>38122</v>
@@ -710,7 +708,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>4367</v>
@@ -727,7 +725,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>92895</v>
@@ -744,7 +742,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>17636</v>
@@ -761,7 +759,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>8046</v>
@@ -778,7 +776,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>204712</v>
@@ -795,7 +793,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>37508</v>
@@ -812,7 +810,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>21730</v>
@@ -829,7 +827,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>634</v>
@@ -846,7 +844,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>11212</v>
@@ -863,7 +861,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>40055</v>
@@ -880,7 +878,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>182372</v>
@@ -897,7 +895,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>4678</v>
@@ -914,7 +912,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>9673</v>
@@ -931,7 +929,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>5502</v>
@@ -948,7 +946,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>10532</v>
@@ -965,7 +963,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>12924</v>
@@ -982,7 +980,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>62245</v>
@@ -999,7 +997,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>78983</v>
@@ -1016,7 +1014,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>206423</v>
@@ -1033,7 +1031,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>4522</v>
@@ -1050,7 +1048,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>68286</v>
@@ -1067,7 +1065,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>20444</v>
@@ -1084,7 +1082,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>728</v>
@@ -1101,7 +1099,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>22422</v>
@@ -1118,7 +1116,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>1085</v>
@@ -1135,7 +1133,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>4911</v>
@@ -1152,7 +1150,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>5445</v>
@@ -1169,7 +1167,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>12634</v>
@@ -1186,7 +1184,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>4527</v>
@@ -1203,7 +1201,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>2253</v>
@@ -1220,7 +1218,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>61991</v>
@@ -1237,7 +1235,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>115847</v>
@@ -1254,7 +1252,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>15978</v>
@@ -1271,7 +1269,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>23932</v>
@@ -1288,7 +1286,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>98288</v>
@@ -1305,7 +1303,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>64873</v>
@@ -1322,7 +1320,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>16971</v>
@@ -1339,7 +1337,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>5098</v>
@@ -1356,7 +1354,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>21067</v>
@@ -1373,7 +1371,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>4603</v>
@@ -1390,7 +1388,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>44060</v>
@@ -1407,7 +1405,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>319511</v>
@@ -1424,7 +1422,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>3771</v>
@@ -1441,7 +1439,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>85087</v>
@@ -1458,7 +1456,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>12677</v>
@@ -1475,7 +1473,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>5950</v>
@@ -1492,7 +1490,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>603790</v>
@@ -1509,7 +1507,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>13019</v>
@@ -1526,7 +1524,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>1726</v>
@@ -1543,7 +1541,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
         <v>20727</v>
@@ -1560,7 +1558,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>4910</v>
@@ -1577,7 +1575,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>8654</v>
@@ -1594,7 +1592,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>921</v>
@@ -1611,7 +1609,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>6236</v>
@@ -1628,7 +1626,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>4955</v>
@@ -1645,7 +1643,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>7475</v>
@@ -1662,7 +1660,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>7585</v>
@@ -1679,7 +1677,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>6066</v>
@@ -1696,7 +1694,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>45088</v>
@@ -1713,7 +1711,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>9191</v>
@@ -1730,7 +1728,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
         <v>72129</v>
@@ -1747,7 +1745,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <v>4704</v>
@@ -1764,7 +1762,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
         <v>88114</v>
